--- a/catatan_prakom_upfk.xlsx
+++ b/catatan_prakom_upfk.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="238">
   <si>
     <t>No</t>
   </si>
@@ -107,6 +107,18 @@
     <t>SOP</t>
   </si>
   <si>
+    <t>- mesin absensi tidak dapat diakses (hang) sehingga tidak absensi tidak bisa di tarik dari aplikasi. Tindakan restart mesin absensi</t>
+  </si>
+  <si>
+    <t>perbaikan</t>
+  </si>
+  <si>
+    <t>- backup server file</t>
+  </si>
+  <si>
+    <t>- scan dan whatsapp surat pengajuan cuti an. Ria</t>
+  </si>
+  <si>
     <t>Pelatihan MS Office via ZOOM dari Nurul Fikri</t>
   </si>
   <si>
@@ -126,9 +138,6 @@
   </si>
   <si>
     <t>- Perbaikan printer HP 107 a milik user : Putri, ada tanda seru pada tombol power. Permasalahan : ada kertas yang menyangkut. tindakan : melepas kertas, dan tes print</t>
-  </si>
-  <si>
-    <t>perbaikan</t>
   </si>
   <si>
     <t>- mengisi MySAPK BKN</t>
@@ -733,9 +742,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="23">
@@ -770,14 +779,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -786,22 +803,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -822,24 +832,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -853,19 +856,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -879,14 +881,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -899,9 +901,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -929,13 +938,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -947,37 +1040,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -989,115 +1094,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1110,6 +1113,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1138,39 +1147,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1178,30 +1154,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1235,157 +1187,214 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1431,9 +1440,6 @@
     <xf numFmtId="58" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1442,9 +1448,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1799,7 +1802,7 @@
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -1831,7 +1834,7 @@
       <c r="B2" s="12">
         <v>44501</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="9" t="s">
@@ -1840,7 +1843,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="9"/>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="9" t="s">
@@ -1850,7 +1853,7 @@
     <row r="4" spans="1:4">
       <c r="A4" s="9"/>
       <c r="B4" s="10"/>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="9" t="s">
@@ -1860,7 +1863,7 @@
     <row r="5" spans="1:4">
       <c r="A5" s="9"/>
       <c r="B5" s="12"/>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="9" t="s">
@@ -1870,7 +1873,7 @@
     <row r="6" spans="1:4">
       <c r="A6" s="13"/>
       <c r="B6" s="14"/>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="15" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="9" t="s">
@@ -1882,7 +1885,7 @@
       <c r="B7" s="12">
         <v>44502</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="9" t="s">
@@ -1892,7 +1895,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="9"/>
       <c r="B8" s="12"/>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="16" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="9" t="s">
@@ -1904,7 +1907,7 @@
       <c r="B9" s="12">
         <v>44512</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="17" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="9" t="s">
@@ -1914,7 +1917,7 @@
     <row r="10" spans="1:4">
       <c r="A10" s="9"/>
       <c r="B10" s="12"/>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="9" t="s">
@@ -1924,7 +1927,7 @@
     <row r="11" spans="1:4">
       <c r="A11" s="2"/>
       <c r="B11" s="12"/>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="16" t="s">
         <v>20</v>
       </c>
       <c r="D11" s="9" t="s">
@@ -1936,7 +1939,7 @@
       <c r="B12" s="12">
         <v>44515</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="15" t="s">
         <v>22</v>
       </c>
       <c r="D12" s="9" t="s">
@@ -1946,7 +1949,7 @@
     <row r="13" ht="30" spans="1:4">
       <c r="A13" s="2"/>
       <c r="B13" s="12"/>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D13" s="9" t="s">
@@ -1958,29 +1961,44 @@
       <c r="B14" s="12">
         <v>44518</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="15" t="s">
         <v>26</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" ht="30" spans="1:4">
       <c r="A15" s="9"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="9"/>
+      <c r="B15" s="12">
+        <v>44519</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2"/>
       <c r="B16" s="12"/>
-      <c r="D16" s="9"/>
+      <c r="C16" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="9"/>
       <c r="B17" s="10"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="9"/>
+      <c r="C17" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="9"/>
@@ -2216,10 +2234,10 @@
         <v>44470</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2229,8 +2247,8 @@
       <c r="B3" s="12">
         <v>44476</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>30</v>
+      <c r="C3" s="16" t="s">
+        <v>34</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>9</v>
@@ -2239,18 +2257,18 @@
     <row r="4" spans="1:4">
       <c r="A4" s="9"/>
       <c r="B4" s="10"/>
-      <c r="C4" s="17" t="s">
-        <v>31</v>
+      <c r="C4" s="16" t="s">
+        <v>35</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="9"/>
       <c r="B5" s="12"/>
-      <c r="C5" s="17" t="s">
-        <v>33</v>
+      <c r="C5" s="16" t="s">
+        <v>37</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>7</v>
@@ -2263,26 +2281,26 @@
       <c r="B6" s="14">
         <v>44480</v>
       </c>
-      <c r="C6" s="16" t="s">
-        <v>34</v>
+      <c r="C6" s="15" t="s">
+        <v>38</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2"/>
       <c r="B7" s="12"/>
-      <c r="C7" s="16" t="s">
-        <v>36</v>
+      <c r="C7" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="D7" s="9"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="9"/>
       <c r="B8" s="12"/>
-      <c r="C8" s="17" t="s">
-        <v>37</v>
+      <c r="C8" s="16" t="s">
+        <v>40</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>7</v>
@@ -2295,8 +2313,8 @@
       <c r="B9" s="12">
         <v>44481</v>
       </c>
-      <c r="C9" s="18" t="s">
-        <v>38</v>
+      <c r="C9" s="17" t="s">
+        <v>41</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>7</v>
@@ -2309,44 +2327,44 @@
       <c r="B10" s="12">
         <v>44482</v>
       </c>
-      <c r="C10" s="17" t="s">
-        <v>39</v>
+      <c r="C10" s="16" t="s">
+        <v>42</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2"/>
       <c r="B11" s="12"/>
-      <c r="C11" s="17" t="s">
-        <v>41</v>
+      <c r="C11" s="16" t="s">
+        <v>44</v>
       </c>
       <c r="D11" s="9"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="9"/>
       <c r="B12" s="10"/>
-      <c r="C12" s="16" t="s">
-        <v>42</v>
+      <c r="C12" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="D12" s="9"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2"/>
       <c r="B13" s="12"/>
-      <c r="C13" s="17" t="s">
-        <v>43</v>
+      <c r="C13" s="16" t="s">
+        <v>46</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="9"/>
       <c r="B14" s="10"/>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D14" s="9"/>
     </row>
@@ -2354,7 +2372,7 @@
       <c r="A15" s="9"/>
       <c r="B15" s="10"/>
       <c r="C15" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D15" s="9"/>
     </row>
@@ -2362,7 +2380,7 @@
       <c r="A16" s="2"/>
       <c r="B16" s="12"/>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D16" s="9"/>
     </row>
@@ -2370,7 +2388,7 @@
       <c r="A17" s="9"/>
       <c r="B17" s="10"/>
       <c r="C17" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D17" s="9"/>
     </row>
@@ -2381,21 +2399,21 @@
       <c r="B18" s="12">
         <v>44483</v>
       </c>
-      <c r="C18" s="16" t="s">
-        <v>49</v>
+      <c r="C18" s="15" t="s">
+        <v>52</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="9"/>
       <c r="B19" s="10"/>
-      <c r="C19" s="16" t="s">
-        <v>51</v>
+      <c r="C19" s="15" t="s">
+        <v>54</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2405,19 +2423,19 @@
       <c r="B20" s="12">
         <v>44484</v>
       </c>
-      <c r="C20" s="16" t="s">
-        <v>53</v>
+      <c r="C20" s="15" t="s">
+        <v>56</v>
       </c>
       <c r="D20" s="9"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2"/>
       <c r="B21" s="12"/>
-      <c r="C21" s="17" t="s">
-        <v>54</v>
+      <c r="C21" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2427,21 +2445,21 @@
       <c r="B22" s="12">
         <v>44487</v>
       </c>
-      <c r="C22" s="17" t="s">
-        <v>56</v>
+      <c r="C22" s="16" t="s">
+        <v>59</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" ht="30" spans="1:4">
       <c r="A23" s="9"/>
       <c r="B23" s="10"/>
-      <c r="C23" s="16" t="s">
-        <v>58</v>
+      <c r="C23" s="15" t="s">
+        <v>61</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" ht="30" spans="1:4">
@@ -2451,8 +2469,8 @@
       <c r="B24" s="12">
         <v>44488</v>
       </c>
-      <c r="C24" s="16" t="s">
-        <v>60</v>
+      <c r="C24" s="15" t="s">
+        <v>63</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>7</v>
@@ -2498,8 +2516,8 @@
       <c r="B30" s="12">
         <v>44491</v>
       </c>
-      <c r="C30" s="17" t="s">
-        <v>61</v>
+      <c r="C30" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>7</v>
@@ -2512,49 +2530,49 @@
       <c r="B31" s="12">
         <v>44494</v>
       </c>
-      <c r="C31" s="16" t="s">
-        <v>62</v>
+      <c r="C31" s="15" t="s">
+        <v>65</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2"/>
       <c r="B32" s="12"/>
-      <c r="C32" s="17" t="s">
-        <v>64</v>
+      <c r="C32" s="16" t="s">
+        <v>67</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="9"/>
       <c r="B33" s="12"/>
-      <c r="C33" s="17" t="s">
-        <v>66</v>
+      <c r="C33" s="16" t="s">
+        <v>69</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="9"/>
       <c r="B34" s="12"/>
-      <c r="C34" s="17" t="s">
-        <v>68</v>
+      <c r="C34" s="16" t="s">
+        <v>71</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="3:4">
-      <c r="C35" s="17" t="s">
-        <v>69</v>
+      <c r="C35" s="16" t="s">
+        <v>72</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" ht="30" spans="1:4">
@@ -2564,21 +2582,21 @@
       <c r="B36" s="7">
         <v>44495</v>
       </c>
-      <c r="C36" s="16" t="s">
-        <v>70</v>
+      <c r="C36" s="15" t="s">
+        <v>73</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="9"/>
       <c r="B37" s="7"/>
-      <c r="C37" s="18" t="s">
-        <v>72</v>
+      <c r="C37" s="17" t="s">
+        <v>75</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" ht="30" spans="1:4">
@@ -2588,24 +2606,24 @@
       <c r="B38" s="12">
         <v>44496</v>
       </c>
-      <c r="C38" s="18" t="s">
-        <v>73</v>
+      <c r="C38" s="17" t="s">
+        <v>76</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="3:4">
-      <c r="C39" s="17" t="s">
-        <v>74</v>
+      <c r="C39" s="16" t="s">
+        <v>77</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="3:4">
-      <c r="C40" s="16" t="s">
-        <v>75</v>
+      <c r="C40" s="15" t="s">
+        <v>78</v>
       </c>
       <c r="D40" s="9" t="s">
         <v>7</v>
@@ -2616,23 +2634,23 @@
       <c r="B41" s="12">
         <v>44498</v>
       </c>
-      <c r="C41" s="16" t="s">
-        <v>76</v>
+      <c r="C41" s="15" t="s">
+        <v>79</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="3:4">
-      <c r="C42" s="16" t="s">
-        <v>77</v>
+      <c r="C42" s="15" t="s">
+        <v>80</v>
       </c>
       <c r="D42" s="9"/>
     </row>
     <row r="43" ht="45" spans="2:4">
       <c r="B43" s="3"/>
-      <c r="C43" s="16" t="s">
-        <v>78</v>
+      <c r="C43" s="15" t="s">
+        <v>81</v>
       </c>
       <c r="D43" s="9" t="s">
         <v>5</v>
@@ -2739,8 +2757,8 @@
       <c r="B2" s="7">
         <v>44440</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>79</v>
+      <c r="C2" s="16" t="s">
+        <v>82</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>9</v>
@@ -2748,20 +2766,20 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="9"/>
-      <c r="C3" s="17" t="s">
-        <v>80</v>
+      <c r="C3" s="16" t="s">
+        <v>83</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="9"/>
-      <c r="C4" s="17" t="s">
-        <v>82</v>
+      <c r="C4" s="16" t="s">
+        <v>85</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2771,17 +2789,17 @@
       <c r="B5" s="7">
         <v>44441</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>84</v>
+      <c r="C5" s="16" t="s">
+        <v>87</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="9"/>
-      <c r="C6" s="16" t="s">
-        <v>86</v>
+      <c r="C6" s="15" t="s">
+        <v>89</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>7</v>
@@ -2790,11 +2808,11 @@
     <row r="7" spans="1:4">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="16" t="s">
-        <v>87</v>
+      <c r="C7" s="15" t="s">
+        <v>90</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2804,8 +2822,8 @@
       <c r="B8" s="7">
         <v>44442</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>88</v>
+      <c r="C8" s="16" t="s">
+        <v>91</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>13</v>
@@ -2814,8 +2832,8 @@
     <row r="9" ht="30" spans="1:4">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="18" t="s">
-        <v>89</v>
+      <c r="C9" s="17" t="s">
+        <v>92</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>7</v>
@@ -2823,18 +2841,18 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="9"/>
-      <c r="C10" s="17" t="s">
-        <v>90</v>
+      <c r="C10" s="16" t="s">
+        <v>93</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="17" t="s">
-        <v>92</v>
+      <c r="C11" s="16" t="s">
+        <v>95</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>13</v>
@@ -2842,8 +2860,8 @@
     </row>
     <row r="12" ht="30" spans="1:4">
       <c r="A12" s="9"/>
-      <c r="C12" s="16" t="s">
-        <v>93</v>
+      <c r="C12" s="15" t="s">
+        <v>96</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>13</v>
@@ -2856,8 +2874,8 @@
       <c r="B13" s="7">
         <v>44445</v>
       </c>
-      <c r="C13" s="17" t="s">
-        <v>94</v>
+      <c r="C13" s="16" t="s">
+        <v>97</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>9</v>
@@ -2865,8 +2883,8 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="9"/>
-      <c r="C14" s="17" t="s">
-        <v>95</v>
+      <c r="C14" s="16" t="s">
+        <v>98</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>25</v>
@@ -2874,30 +2892,30 @@
     </row>
     <row r="15" ht="30" spans="1:4">
       <c r="A15" s="9"/>
-      <c r="C15" s="16" t="s">
-        <v>96</v>
+      <c r="C15" s="15" t="s">
+        <v>99</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
-      <c r="C16" s="17" t="s">
-        <v>97</v>
+      <c r="C16" s="16" t="s">
+        <v>100</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" ht="30" spans="1:4">
       <c r="A17" s="9"/>
-      <c r="C17" s="16" t="s">
-        <v>98</v>
+      <c r="C17" s="15" t="s">
+        <v>101</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2907,8 +2925,8 @@
       <c r="B18" s="7">
         <v>44446</v>
       </c>
-      <c r="C18" s="16" t="s">
-        <v>100</v>
+      <c r="C18" s="15" t="s">
+        <v>103</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>7</v>
@@ -2916,21 +2934,21 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="9"/>
-      <c r="C19" s="16" t="s">
-        <v>101</v>
+      <c r="C19" s="15" t="s">
+        <v>104</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" ht="30" spans="1:4">
       <c r="A20" s="2"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="16" t="s">
-        <v>103</v>
+      <c r="C20" s="15" t="s">
+        <v>106</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2940,8 +2958,8 @@
       <c r="B21" s="7">
         <v>44448</v>
       </c>
-      <c r="C21" s="17" t="s">
-        <v>79</v>
+      <c r="C21" s="16" t="s">
+        <v>82</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>9</v>
@@ -2949,20 +2967,20 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="9"/>
-      <c r="C22" s="17" t="s">
-        <v>104</v>
+      <c r="C22" s="16" t="s">
+        <v>107</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" ht="30" spans="1:4">
       <c r="A23" s="9"/>
-      <c r="C23" s="16" t="s">
-        <v>106</v>
+      <c r="C23" s="15" t="s">
+        <v>109</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2970,10 +2988,10 @@
         <v>7</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>79</v>
+        <v>110</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>82</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>9</v>
@@ -2981,21 +2999,21 @@
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="9"/>
-      <c r="C25" s="17" t="s">
-        <v>84</v>
+      <c r="C25" s="16" t="s">
+        <v>87</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2"/>
       <c r="B26" s="11"/>
-      <c r="C26" s="17" t="s">
-        <v>108</v>
+      <c r="C26" s="16" t="s">
+        <v>111</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -3005,28 +3023,28 @@
       <c r="B27" s="12">
         <v>44452</v>
       </c>
-      <c r="C27" s="17" t="s">
-        <v>79</v>
+      <c r="C27" s="16" t="s">
+        <v>82</v>
       </c>
       <c r="D27" s="9"/>
     </row>
     <row r="28" ht="30" spans="1:4">
       <c r="A28" s="2"/>
       <c r="B28" s="11"/>
-      <c r="C28" s="16" t="s">
-        <v>109</v>
+      <c r="C28" s="15" t="s">
+        <v>112</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" ht="45" spans="2:4">
       <c r="B29" s="9"/>
-      <c r="C29" s="16" t="s">
-        <v>110</v>
+      <c r="C29" s="15" t="s">
+        <v>113</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -3036,20 +3054,20 @@
       <c r="B30" s="12">
         <v>44454</v>
       </c>
-      <c r="C30" s="17" t="s">
-        <v>111</v>
+      <c r="C30" s="16" t="s">
+        <v>114</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" ht="30" spans="2:4">
       <c r="B31" s="9"/>
-      <c r="C31" s="16" t="s">
-        <v>113</v>
+      <c r="C31" s="15" t="s">
+        <v>116</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -3059,11 +3077,11 @@
       <c r="B32" s="12">
         <v>44455</v>
       </c>
-      <c r="C32" s="17" t="s">
-        <v>114</v>
+      <c r="C32" s="16" t="s">
+        <v>117</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -3073,11 +3091,11 @@
       <c r="B33" s="12">
         <v>44456</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="C33" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D33" s="9" t="s">
         <v>115</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -3087,27 +3105,27 @@
       <c r="B34" s="12">
         <v>44459</v>
       </c>
-      <c r="C34" s="17" t="s">
-        <v>116</v>
+      <c r="C34" s="16" t="s">
+        <v>119</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="35" spans="3:4">
-      <c r="C35" s="17" t="s">
-        <v>117</v>
+      <c r="C35" s="16" t="s">
+        <v>120</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="36" ht="30" spans="3:4">
-      <c r="C36" s="16" t="s">
-        <v>118</v>
+      <c r="C36" s="15" t="s">
+        <v>121</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" ht="30" spans="1:4">
@@ -3117,11 +3135,11 @@
       <c r="B37" s="7">
         <v>44460</v>
       </c>
-      <c r="C37" s="18" t="s">
-        <v>119</v>
+      <c r="C37" s="17" t="s">
+        <v>122</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -3131,27 +3149,27 @@
       <c r="B38" s="12">
         <v>44461</v>
       </c>
-      <c r="C38" s="17" t="s">
-        <v>79</v>
+      <c r="C38" s="16" t="s">
+        <v>82</v>
       </c>
       <c r="D38" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="39" spans="3:4">
-      <c r="C39" s="17" t="s">
-        <v>120</v>
+      <c r="C39" s="16" t="s">
+        <v>123</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40" ht="30" spans="3:4">
-      <c r="C40" s="16" t="s">
-        <v>122</v>
+      <c r="C40" s="15" t="s">
+        <v>125</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -3161,33 +3179,33 @@
       <c r="B41" s="12">
         <v>44463</v>
       </c>
-      <c r="C41" s="16" t="s">
-        <v>79</v>
+      <c r="C41" s="15" t="s">
+        <v>82</v>
       </c>
       <c r="D41" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="42" spans="3:4">
-      <c r="C42" s="16" t="s">
-        <v>123</v>
+      <c r="C42" s="15" t="s">
+        <v>126</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="43" spans="2:4">
       <c r="B43" s="3"/>
-      <c r="C43" s="17" t="s">
-        <v>117</v>
+      <c r="C43" s="16" t="s">
+        <v>120</v>
       </c>
       <c r="D43" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="44" spans="3:4">
-      <c r="C44" s="17" t="s">
-        <v>125</v>
+      <c r="C44" s="16" t="s">
+        <v>128</v>
       </c>
       <c r="D44" s="9" t="s">
         <v>25</v>
@@ -3200,24 +3218,24 @@
       <c r="B45" s="12">
         <v>44466</v>
       </c>
-      <c r="C45" s="16" t="s">
-        <v>126</v>
+      <c r="C45" s="15" t="s">
+        <v>129</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46" spans="3:4">
-      <c r="C46" s="16" t="s">
-        <v>127</v>
+      <c r="C46" s="15" t="s">
+        <v>130</v>
       </c>
       <c r="D46" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="47" spans="3:4">
-      <c r="C47" s="16" t="s">
-        <v>128</v>
+      <c r="C47" s="15" t="s">
+        <v>131</v>
       </c>
       <c r="D47" s="9" t="s">
         <v>25</v>
@@ -3225,11 +3243,11 @@
     </row>
     <row r="48" spans="2:4">
       <c r="B48" s="3"/>
-      <c r="C48" s="16" t="s">
-        <v>129</v>
+      <c r="C48" s="15" t="s">
+        <v>132</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -3239,11 +3257,11 @@
       <c r="B49" s="12">
         <v>44467</v>
       </c>
-      <c r="C49" s="17" t="s">
-        <v>130</v>
+      <c r="C49" s="16" t="s">
+        <v>133</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -3253,17 +3271,17 @@
       <c r="B50" s="12">
         <v>44468</v>
       </c>
-      <c r="C50" s="17" t="s">
-        <v>131</v>
+      <c r="C50" s="16" t="s">
+        <v>134</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="2:3">
       <c r="B51" s="10"/>
-      <c r="C51" s="16" t="s">
-        <v>132</v>
+      <c r="C51" s="15" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -3273,11 +3291,11 @@
       <c r="B52" s="3">
         <v>44469</v>
       </c>
-      <c r="C52" s="16" t="s">
-        <v>133</v>
+      <c r="C52" s="15" t="s">
+        <v>136</v>
       </c>
       <c r="D52" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53" spans="2:3">
@@ -3341,43 +3359,43 @@
       <c r="B2" s="7">
         <v>44410</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>134</v>
+      <c r="C2" s="16" t="s">
+        <v>137</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="3:4">
-      <c r="C3" s="17" t="s">
-        <v>135</v>
+      <c r="C3" s="16" t="s">
+        <v>138</v>
       </c>
       <c r="D3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="3:4">
-      <c r="C4" s="17" t="s">
-        <v>137</v>
+      <c r="C4" s="16" t="s">
+        <v>140</v>
       </c>
       <c r="D4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="3:4">
-      <c r="C5" s="17" t="s">
-        <v>139</v>
+      <c r="C5" s="16" t="s">
+        <v>142</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" ht="30" spans="3:4">
-      <c r="C6" s="16" t="s">
-        <v>140</v>
+      <c r="C6" s="15" t="s">
+        <v>143</v>
       </c>
       <c r="D6" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" ht="30" spans="1:4">
@@ -3387,16 +3405,16 @@
       <c r="B7" s="7">
         <v>44411</v>
       </c>
-      <c r="C7" s="16" t="s">
-        <v>142</v>
+      <c r="C7" s="15" t="s">
+        <v>145</v>
       </c>
       <c r="D7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="3:4">
-      <c r="C8" s="17" t="s">
-        <v>143</v>
+      <c r="C8" s="16" t="s">
+        <v>146</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
@@ -3409,16 +3427,16 @@
       <c r="B9" s="7">
         <v>44412</v>
       </c>
-      <c r="C9" s="17" t="s">
-        <v>144</v>
+      <c r="C9" s="16" t="s">
+        <v>147</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="3:4">
-      <c r="C10" s="17" t="s">
-        <v>145</v>
+      <c r="C10" s="16" t="s">
+        <v>148</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
@@ -3431,16 +3449,16 @@
       <c r="B11" s="7">
         <v>44413</v>
       </c>
-      <c r="C11" s="17" t="s">
-        <v>146</v>
+      <c r="C11" s="16" t="s">
+        <v>149</v>
       </c>
       <c r="D11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="3:4">
-      <c r="C12" s="17" t="s">
-        <v>147</v>
+      <c r="C12" s="16" t="s">
+        <v>150</v>
       </c>
       <c r="D12" t="s">
         <v>7</v>
@@ -3453,24 +3471,24 @@
       <c r="B13" s="7">
         <v>44414</v>
       </c>
-      <c r="C13" s="17" t="s">
-        <v>148</v>
+      <c r="C13" s="16" t="s">
+        <v>151</v>
       </c>
       <c r="D13" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="3:4">
-      <c r="C14" s="17" t="s">
-        <v>149</v>
+      <c r="C14" s="16" t="s">
+        <v>152</v>
       </c>
       <c r="D14" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="15" spans="3:3">
-      <c r="C15" s="17" t="s">
-        <v>145</v>
+      <c r="C15" s="16" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3480,35 +3498,35 @@
       <c r="B16" s="7">
         <v>44417</v>
       </c>
-      <c r="C16" s="17" t="s">
-        <v>150</v>
+      <c r="C16" s="16" t="s">
+        <v>153</v>
       </c>
       <c r="D16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="3:4">
-      <c r="C17" s="17" t="s">
-        <v>145</v>
+      <c r="C17" s="16" t="s">
+        <v>148</v>
       </c>
       <c r="D17" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="18" ht="30" spans="3:4">
-      <c r="C18" s="16" t="s">
-        <v>151</v>
+      <c r="C18" s="15" t="s">
+        <v>154</v>
       </c>
       <c r="D18" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" ht="30" spans="3:4">
-      <c r="C19" s="16" t="s">
-        <v>153</v>
+      <c r="C19" s="15" t="s">
+        <v>156</v>
       </c>
       <c r="D19" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3518,8 +3536,8 @@
       <c r="B20" s="7">
         <v>44418</v>
       </c>
-      <c r="C20" s="17" t="s">
-        <v>154</v>
+      <c r="C20" s="16" t="s">
+        <v>157</v>
       </c>
       <c r="D20" t="s">
         <v>13</v>
@@ -3532,43 +3550,43 @@
       <c r="B21" s="7">
         <v>44420</v>
       </c>
-      <c r="C21" s="17" t="s">
-        <v>155</v>
+      <c r="C21" s="16" t="s">
+        <v>158</v>
       </c>
       <c r="D21" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="3:4">
-      <c r="C22" s="17" t="s">
-        <v>156</v>
+      <c r="C22" s="16" t="s">
+        <v>159</v>
       </c>
       <c r="D22" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="3:4">
-      <c r="C23" s="17" t="s">
-        <v>157</v>
+      <c r="C23" s="16" t="s">
+        <v>160</v>
       </c>
       <c r="D23" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="24" spans="3:4">
-      <c r="C24" s="17" t="s">
-        <v>158</v>
+      <c r="C24" s="16" t="s">
+        <v>161</v>
       </c>
       <c r="D24" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="25" spans="3:4">
-      <c r="C25" s="17" t="s">
-        <v>159</v>
+      <c r="C25" s="16" t="s">
+        <v>162</v>
       </c>
       <c r="D25" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -3578,19 +3596,19 @@
       <c r="B26" s="7">
         <v>44421</v>
       </c>
-      <c r="C26" s="17" t="s">
-        <v>145</v>
+      <c r="C26" s="16" t="s">
+        <v>148</v>
       </c>
       <c r="D26" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27" spans="3:4">
-      <c r="C27" s="17" t="s">
-        <v>160</v>
+      <c r="C27" s="16" t="s">
+        <v>163</v>
       </c>
       <c r="D27" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -3600,43 +3618,43 @@
       <c r="B28" s="7">
         <v>44427</v>
       </c>
-      <c r="C28" s="17" t="s">
-        <v>145</v>
+      <c r="C28" s="16" t="s">
+        <v>148</v>
       </c>
       <c r="D28" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="29" spans="3:4">
-      <c r="C29" s="17" t="s">
-        <v>162</v>
+      <c r="C29" s="16" t="s">
+        <v>165</v>
       </c>
       <c r="D29" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="30" spans="3:4">
-      <c r="C30" s="17" t="s">
-        <v>163</v>
+      <c r="C30" s="16" t="s">
+        <v>166</v>
       </c>
       <c r="D30" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="31" spans="3:4">
-      <c r="C31" s="17" t="s">
-        <v>164</v>
+      <c r="C31" s="16" t="s">
+        <v>167</v>
       </c>
       <c r="D31" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="32" spans="3:4">
-      <c r="C32" s="17" t="s">
-        <v>166</v>
+      <c r="C32" s="16" t="s">
+        <v>169</v>
       </c>
       <c r="D32" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -3646,51 +3664,51 @@
       <c r="B33" s="7">
         <v>44431</v>
       </c>
-      <c r="C33" s="17" t="s">
-        <v>168</v>
+      <c r="C33" s="16" t="s">
+        <v>171</v>
       </c>
       <c r="D33" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="34" spans="3:4">
-      <c r="C34" s="17" t="s">
-        <v>169</v>
+      <c r="C34" s="16" t="s">
+        <v>172</v>
       </c>
       <c r="D34" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="35" ht="30" spans="3:4">
-      <c r="C35" s="16" t="s">
-        <v>170</v>
+      <c r="C35" s="15" t="s">
+        <v>173</v>
       </c>
       <c r="D35" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="36" spans="3:4">
-      <c r="C36" s="17" t="s">
-        <v>171</v>
+      <c r="C36" s="16" t="s">
+        <v>174</v>
       </c>
       <c r="D36" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="37" spans="3:4">
-      <c r="C37" s="17" t="s">
-        <v>172</v>
+      <c r="C37" s="16" t="s">
+        <v>175</v>
       </c>
       <c r="D37" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="38" ht="30" spans="3:4">
-      <c r="C38" s="16" t="s">
-        <v>173</v>
+      <c r="C38" s="15" t="s">
+        <v>176</v>
       </c>
       <c r="D38" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -3700,51 +3718,51 @@
       <c r="B39" s="7">
         <v>44432</v>
       </c>
-      <c r="C39" s="17" t="s">
-        <v>145</v>
+      <c r="C39" s="16" t="s">
+        <v>148</v>
       </c>
       <c r="D39" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="40" spans="3:4">
-      <c r="C40" s="17" t="s">
-        <v>174</v>
+      <c r="C40" s="16" t="s">
+        <v>177</v>
       </c>
       <c r="D40" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="41" spans="3:4">
-      <c r="C41" s="17" t="s">
-        <v>175</v>
+      <c r="C41" s="16" t="s">
+        <v>178</v>
       </c>
       <c r="D41" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="42" ht="45" spans="3:4">
-      <c r="C42" s="16" t="s">
-        <v>176</v>
+      <c r="C42" s="15" t="s">
+        <v>179</v>
       </c>
       <c r="D42" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" spans="3:4">
-      <c r="C43" s="16" t="s">
-        <v>177</v>
+      <c r="C43" s="15" t="s">
+        <v>180</v>
       </c>
       <c r="D43" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="44" spans="3:4">
-      <c r="C44" s="16" t="s">
-        <v>178</v>
+      <c r="C44" s="15" t="s">
+        <v>181</v>
       </c>
       <c r="D44" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -3754,40 +3772,40 @@
       <c r="B45" s="7">
         <v>44433</v>
       </c>
-      <c r="C45" s="17" t="s">
-        <v>145</v>
+      <c r="C45" s="16" t="s">
+        <v>148</v>
       </c>
       <c r="D45" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="46" spans="3:4">
-      <c r="C46" s="17" t="s">
-        <v>180</v>
+      <c r="C46" s="16" t="s">
+        <v>183</v>
       </c>
       <c r="D46" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="47" ht="45" spans="3:4">
-      <c r="C47" s="16" t="s">
-        <v>181</v>
+      <c r="C47" s="15" t="s">
+        <v>184</v>
       </c>
       <c r="D47" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="48" ht="30" spans="3:4">
-      <c r="C48" s="16" t="s">
-        <v>182</v>
+      <c r="C48" s="15" t="s">
+        <v>185</v>
       </c>
       <c r="D48" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="49" spans="3:4">
-      <c r="C49" s="16" t="s">
-        <v>183</v>
+      <c r="C49" s="15" t="s">
+        <v>186</v>
       </c>
       <c r="D49" t="s">
         <v>7</v>
@@ -3800,40 +3818,40 @@
       <c r="B50" s="7">
         <v>44434</v>
       </c>
-      <c r="C50" s="16" t="s">
-        <v>184</v>
+      <c r="C50" s="15" t="s">
+        <v>187</v>
       </c>
       <c r="D50" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="51" spans="3:4">
-      <c r="C51" s="17" t="s">
-        <v>185</v>
+      <c r="C51" s="16" t="s">
+        <v>188</v>
       </c>
       <c r="D51" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" spans="3:4">
-      <c r="C52" s="17" t="s">
-        <v>186</v>
+      <c r="C52" s="16" t="s">
+        <v>189</v>
       </c>
       <c r="D52" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="53" ht="30" spans="3:4">
-      <c r="C53" s="16" t="s">
-        <v>187</v>
+      <c r="C53" s="15" t="s">
+        <v>190</v>
       </c>
       <c r="D53" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="54" ht="30" spans="3:4">
-      <c r="C54" s="16" t="s">
-        <v>188</v>
+      <c r="C54" s="15" t="s">
+        <v>191</v>
       </c>
       <c r="D54" t="s">
         <v>13</v>
@@ -3846,24 +3864,24 @@
       <c r="B55" s="7">
         <v>44435</v>
       </c>
-      <c r="C55" s="18" t="s">
-        <v>189</v>
+      <c r="C55" s="17" t="s">
+        <v>192</v>
       </c>
       <c r="D55" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56" spans="3:4">
-      <c r="C56" s="17" t="s">
-        <v>190</v>
+      <c r="C56" s="16" t="s">
+        <v>193</v>
       </c>
       <c r="D56" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="57" spans="3:4">
-      <c r="C57" s="17" t="s">
-        <v>191</v>
+      <c r="C57" s="16" t="s">
+        <v>194</v>
       </c>
       <c r="D57" t="s">
         <v>9</v>
@@ -3876,27 +3894,27 @@
       <c r="B58" s="7">
         <v>44438</v>
       </c>
-      <c r="C58" s="16" t="s">
-        <v>192</v>
+      <c r="C58" s="15" t="s">
+        <v>195</v>
       </c>
       <c r="D58" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59" spans="3:4">
-      <c r="C59" s="17" t="s">
-        <v>193</v>
+      <c r="C59" s="16" t="s">
+        <v>196</v>
       </c>
       <c r="D59" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60" spans="3:4">
-      <c r="C60" s="17" t="s">
-        <v>194</v>
+      <c r="C60" s="16" t="s">
+        <v>197</v>
       </c>
       <c r="D60" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -3906,27 +3924,27 @@
       <c r="B61" s="7">
         <v>44439</v>
       </c>
-      <c r="C61" s="17" t="s">
-        <v>134</v>
+      <c r="C61" s="16" t="s">
+        <v>137</v>
       </c>
       <c r="D61" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="62" spans="3:4">
-      <c r="C62" s="17" t="s">
-        <v>196</v>
+      <c r="C62" s="16" t="s">
+        <v>199</v>
       </c>
       <c r="D62" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="63" ht="30" spans="3:4">
-      <c r="C63" s="16" t="s">
-        <v>197</v>
+      <c r="C63" s="15" t="s">
+        <v>200</v>
       </c>
       <c r="D63" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -3971,42 +3989,42 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>199</v>
+        <v>201</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>202</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="3:4">
-      <c r="C3" s="17" t="s">
-        <v>200</v>
+      <c r="C3" s="16" t="s">
+        <v>203</v>
       </c>
       <c r="D3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="3:4">
-      <c r="C4" s="16" t="s">
-        <v>201</v>
+      <c r="C4" s="15" t="s">
+        <v>204</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="3:4">
-      <c r="C5" s="17" t="s">
-        <v>202</v>
+      <c r="C5" s="16" t="s">
+        <v>205</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="3:4">
-      <c r="C6" s="17" t="s">
-        <v>203</v>
+      <c r="C6" s="16" t="s">
+        <v>206</v>
       </c>
       <c r="D6" t="s">
         <v>25</v>
@@ -4017,29 +4035,29 @@
         <v>2</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>205</v>
+        <v>207</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>208</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="8" spans="3:4">
-      <c r="C8" s="17" t="s">
-        <v>206</v>
+      <c r="C8" s="16" t="s">
+        <v>209</v>
       </c>
       <c r="D8" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="3:4">
-      <c r="C9" s="17" t="s">
-        <v>207</v>
+      <c r="C9" s="16" t="s">
+        <v>210</v>
       </c>
       <c r="D9" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4047,66 +4065,66 @@
         <v>3</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>134</v>
+        <v>212</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>137</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="3:4">
-      <c r="C11" s="17" t="s">
-        <v>210</v>
+      <c r="C11" s="16" t="s">
+        <v>213</v>
       </c>
       <c r="D11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="12" spans="3:4">
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="D12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4">
+      <c r="C13" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="D13" t="s">
         <v>211</v>
       </c>
-      <c r="D12" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="13" spans="3:4">
-      <c r="C13" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="D13" t="s">
-        <v>208</v>
-      </c>
     </row>
     <row r="14" spans="3:4">
-      <c r="C14" s="17" t="s">
-        <v>137</v>
+      <c r="C14" s="16" t="s">
+        <v>140</v>
       </c>
       <c r="D14" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="3:4">
-      <c r="C15" s="17" t="s">
-        <v>213</v>
+      <c r="C15" s="16" t="s">
+        <v>216</v>
       </c>
       <c r="D15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="16" spans="3:4">
-      <c r="C16" s="17" t="s">
-        <v>214</v>
+      <c r="C16" s="16" t="s">
+        <v>217</v>
       </c>
       <c r="D16" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="17" spans="3:4">
-      <c r="C17" s="17" t="s">
-        <v>215</v>
+      <c r="C17" s="16" t="s">
+        <v>218</v>
       </c>
       <c r="D17" t="s">
         <v>25</v>
@@ -4117,37 +4135,37 @@
         <v>4</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>217</v>
+        <v>219</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>220</v>
       </c>
       <c r="D18" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="3:4">
-      <c r="C19" s="17" t="s">
-        <v>137</v>
+      <c r="C19" s="16" t="s">
+        <v>140</v>
       </c>
       <c r="D19" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="3:4">
-      <c r="C20" s="17" t="s">
-        <v>219</v>
+      <c r="C20" s="16" t="s">
+        <v>222</v>
       </c>
       <c r="D20" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="21" spans="3:4">
-      <c r="C21" s="17" t="s">
-        <v>220</v>
+      <c r="C21" s="16" t="s">
+        <v>223</v>
       </c>
       <c r="D21" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -4155,37 +4173,37 @@
         <v>5</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>222</v>
+        <v>224</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>225</v>
       </c>
       <c r="D22" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="23" spans="3:4">
-      <c r="C23" s="17" t="s">
-        <v>223</v>
+      <c r="C23" s="16" t="s">
+        <v>226</v>
       </c>
       <c r="D23" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="24" spans="3:4">
-      <c r="C24" s="17" t="s">
-        <v>224</v>
+      <c r="C24" s="16" t="s">
+        <v>227</v>
       </c>
       <c r="D24" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="3:4">
-      <c r="C25" s="17" t="s">
-        <v>225</v>
+      <c r="C25" s="16" t="s">
+        <v>228</v>
       </c>
       <c r="D25" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -4195,51 +4213,51 @@
       <c r="B26" s="7">
         <v>44405</v>
       </c>
-      <c r="C26" s="17" t="s">
-        <v>226</v>
+      <c r="C26" s="16" t="s">
+        <v>229</v>
       </c>
       <c r="D26" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="3:4">
-      <c r="C27" s="17" t="s">
-        <v>227</v>
+      <c r="C27" s="16" t="s">
+        <v>230</v>
       </c>
       <c r="D27" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="3:4">
-      <c r="C28" s="17" t="s">
-        <v>228</v>
+      <c r="C28" s="16" t="s">
+        <v>231</v>
       </c>
       <c r="D28" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="29" spans="3:4">
-      <c r="C29" s="17" t="s">
-        <v>229</v>
+      <c r="C29" s="16" t="s">
+        <v>232</v>
       </c>
       <c r="D29" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="30" spans="3:4">
-      <c r="C30" s="17" t="s">
-        <v>139</v>
+      <c r="C30" s="16" t="s">
+        <v>142</v>
       </c>
       <c r="D30" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="31" spans="3:4">
-      <c r="C31" s="17" t="s">
-        <v>230</v>
+      <c r="C31" s="16" t="s">
+        <v>233</v>
       </c>
       <c r="D31" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -4284,8 +4302,8 @@
       <c r="B2" s="3">
         <v>44372</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>231</v>
+      <c r="C2" s="15" t="s">
+        <v>234</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -4335,7 +4353,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4343,7 +4361,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -4369,7 +4387,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
